--- a/1234.xlsx
+++ b/1234.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GIT BASH\new git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CD6DA-7456-43FE-90B6-A8E3AE9ABDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10661683-16E7-4A08-A381-D9ACFB78DB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,52 +357,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>9857</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>699</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>656</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>56885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>98098</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>56885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>946096</v>
+      </c>
+      <c r="C5">
+        <v>5668655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
